--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>875932.2977810031</v>
+        <v>871747.4766318331</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6463284.468165413</v>
+        <v>6463284.468165411</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>132.5476339651706</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>183.523064043382</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>123.9302636806049</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>214.3895892474464</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>361.9542693780641</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>216.6435854649213</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>83.72810453929125</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>18.28490348722381</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1852,13 +1852,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>185.3313864496396</v>
+        <v>109.554047018501</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0.06903496020917486</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>70.84358891275498</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>180.4479772825739</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>82.99383772901933</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>130.7605532869705</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>123.9636109289948</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2329,13 +2329,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>42.24632507394977</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>41.12230164981136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2487,16 +2487,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0457076940604</v>
+        <v>14.42437218478345</v>
       </c>
       <c r="H25" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I25" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>105.7243558263581</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>100.213441163758</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H26" t="n">
-        <v>265.9270524809863</v>
+        <v>67.17758923862685</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.6201733782473</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2724,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0457076940604</v>
       </c>
       <c r="H28" t="n">
-        <v>130.593315014692</v>
+        <v>92.7099594300299</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.89266837859753</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>77.57300604213079</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.502128271564602</v>
       </c>
       <c r="U29" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.0457076940604</v>
@@ -2970,7 +2970,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I31" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>239.619400782111</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V31" t="n">
-        <v>253.9596097525714</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>72.72562249560333</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>289.0510167575561</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>311.0210453062859</v>
       </c>
     </row>
     <row r="33">
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0457076940604</v>
+        <v>16.13626634197823</v>
       </c>
       <c r="H34" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.619400782111</v>
@@ -3249,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>13.78514342636097</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>159.0308842778084</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T35" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V35" t="n">
-        <v>51.44192088226225</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>119.3364675381702</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.619400782111</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.4398593003576</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>85.51767408134916</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H38" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T38" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.1167971762457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>7.254309858394008</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.13626634197829</v>
       </c>
       <c r="T40" t="n">
         <v>239.619400782111</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T41" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>409.9104690828033</v>
       </c>
       <c r="Y41" t="n">
-        <v>135.826756673167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>38.21077633130403</v>
       </c>
       <c r="E43" t="n">
-        <v>145.2521883687727</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H44" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.6201733782473</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T44" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>217.9063652610882</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>116.3581325426717</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>68.90671201031856</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,7 +4143,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>102.439859300358</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H46" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.01901167430097</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1495.863289652878</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.863289652878</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D11" t="n">
-        <v>1059.953504827322</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E11" t="n">
-        <v>874.5766724602698</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5071,22 +5071,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W11" t="n">
-        <v>1915.005753073567</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X11" t="n">
-        <v>1495.863289652878</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="Y11" t="n">
-        <v>1495.863289652878</v>
+        <v>1284.09203812199</v>
       </c>
     </row>
     <row r="12">
@@ -5096,34 +5096,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>743.6816307030854</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="C13" t="n">
-        <v>571.1199191863103</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D13" t="n">
-        <v>405.241926387833</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>235.4839226385703</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
-        <v>110.3018381127067</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5208,16 +5208,16 @@
         <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1272.302332591134</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1399.801244395024</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,7 +5226,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
@@ -5235,16 +5235,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.311674774552</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.919920107964</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="Y13" t="n">
-        <v>935.5002494220726</v>
+        <v>919.7301297068562</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>850.9593974746871</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="C14" t="n">
-        <v>412.8169246581104</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D14" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K14" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5296,34 +5296,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.256885969251</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2101.256885969251</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W14" t="n">
-        <v>1696.401431380284</v>
+        <v>1738.412353086338</v>
       </c>
       <c r="X14" t="n">
-        <v>1277.258967959595</v>
+        <v>1319.269889665649</v>
       </c>
       <c r="Y14" t="n">
-        <v>1277.258967959595</v>
+        <v>910.9837659653025</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,7 +5363,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
         <v>803.387703298788</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.5773814739204</v>
+        <v>713.9024503859694</v>
       </c>
       <c r="C16" t="n">
-        <v>526.0156699571453</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="D16" t="n">
-        <v>526.0156699571453</v>
+        <v>541.3407388691943</v>
       </c>
       <c r="E16" t="n">
-        <v>356.2576662078826</v>
+        <v>371.5827351199316</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>194.8756810816878</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>295.9524490360518</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>419.8232506543497</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
-        <v>550.4276429928792</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X16" t="n">
-        <v>1117.815670878799</v>
+        <v>1133.140739790848</v>
       </c>
       <c r="Y16" t="n">
-        <v>890.3960001929074</v>
+        <v>905.7210691049565</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1536.329659438081</v>
+        <v>1893.561637177625</v>
       </c>
       <c r="C17" t="n">
-        <v>1098.187186621504</v>
+        <v>1455.419164361049</v>
       </c>
       <c r="D17" t="n">
-        <v>662.2774017959487</v>
+        <v>1019.509379535493</v>
       </c>
       <c r="E17" t="n">
-        <v>662.2774017959487</v>
+        <v>585.7346346937884</v>
       </c>
       <c r="F17" t="n">
-        <v>234.4099722051564</v>
+        <v>157.8672051029961</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J17" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W17" t="n">
-        <v>1955.47212285877</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X17" t="n">
-        <v>1536.329659438081</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1536.329659438081</v>
+        <v>2319.861207662533</v>
       </c>
     </row>
     <row r="18">
@@ -5573,25 +5573,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>663.4738450083642</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C19" t="n">
-        <v>490.9121334915891</v>
+        <v>749.9721259575934</v>
       </c>
       <c r="D19" t="n">
-        <v>490.9121334915891</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="E19" t="n">
-        <v>490.9121334915891</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F19" t="n">
-        <v>314.2050794533453</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
         <v>242.6458987333908</v>
@@ -5670,55 +5670,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>767.3301446246915</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M19" t="n">
-        <v>897.9345369632209</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1467.692251924755</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>499.1987871288563</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C20" t="n">
-        <v>499.1987871288563</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D20" t="n">
-        <v>499.1987871288563</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
@@ -5770,7 +5770,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.256885969251</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1738.639935903077</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="W20" t="n">
-        <v>1333.784481314111</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="X20" t="n">
-        <v>1333.784481314111</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="Y20" t="n">
-        <v>925.4983576137641</v>
+        <v>2024.257796809404</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,13 +5822,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,10 +5837,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>717.0469809559645</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C22" t="n">
-        <v>544.4852694391894</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D22" t="n">
-        <v>544.4852694391894</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E22" t="n">
-        <v>374.7272656899267</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>242.6458987333908</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>970.0968922186607</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X22" t="n">
-        <v>1136.285270360843</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.8655996749517</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.604934205609</v>
+        <v>1357.729854736632</v>
       </c>
       <c r="C23" t="n">
-        <v>2015.462461389032</v>
+        <v>919.5873819200556</v>
       </c>
       <c r="D23" t="n">
-        <v>1579.552676563476</v>
+        <v>483.6775970945001</v>
       </c>
       <c r="E23" t="n">
-        <v>1145.777931721771</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="F23" t="n">
-        <v>717.910502130979</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G23" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I23" t="n">
-        <v>125.1921461296499</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8416560478773</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863825</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L23" t="n">
-        <v>851.4609156385206</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M23" t="n">
         <v>1196.234131838216</v>
@@ -6004,37 +6004,37 @@
         <v>1546.586139125324</v>
       </c>
       <c r="O23" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P23" t="n">
         <v>2159.767192776932</v>
       </c>
       <c r="Q23" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R23" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S23" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T23" t="n">
-        <v>2495.142612639761</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="U23" t="n">
-        <v>2495.142612639761</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="V23" t="n">
-        <v>2495.142612639761</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="W23" t="n">
-        <v>2495.142612639761</v>
+        <v>2203.171888642229</v>
       </c>
       <c r="X23" t="n">
-        <v>2495.142612639761</v>
+        <v>1784.02942522154</v>
       </c>
       <c r="Y23" t="n">
-        <v>2453.604934205609</v>
+        <v>1784.02942522154</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H24" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I24" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J24" t="n">
         <v>185.3289100816567</v>
       </c>
       <c r="K24" t="n">
-        <v>259.9894019238661</v>
+        <v>354.972037946826</v>
       </c>
       <c r="L24" t="n">
-        <v>488.0955226008687</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M24" t="n">
-        <v>754.2846063602958</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N24" t="n">
-        <v>1027.518923096496</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O24" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P24" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q24" t="n">
-        <v>1612.190320866099</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R24" t="n">
         <v>1677.417474573878</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3409990880713</v>
+        <v>942.9254920058333</v>
       </c>
       <c r="C25" t="n">
-        <v>743.7792875712962</v>
+        <v>770.3637804890583</v>
       </c>
       <c r="D25" t="n">
-        <v>577.9012947728189</v>
+        <v>604.485787690581</v>
       </c>
       <c r="E25" t="n">
-        <v>408.1432910235562</v>
+        <v>434.7277839413183</v>
       </c>
       <c r="F25" t="n">
-        <v>408.1432910235562</v>
+        <v>258.0207299030744</v>
       </c>
       <c r="G25" t="n">
         <v>243.4506569891518</v>
@@ -6144,55 +6144,55 @@
         <v>111.538217580372</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J25" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K25" t="n">
-        <v>214.5005058801841</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L25" t="n">
-        <v>345.445197587258</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M25" t="n">
-        <v>942.9918823727372</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N25" t="n">
-        <v>1236.396935959929</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O25" t="n">
         <v>1780.557322929479</v>
       </c>
       <c r="P25" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q25" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R25" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S25" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.102813869952</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U25" t="n">
-        <v>1974.71882990159</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V25" t="n">
         <v>1687.763321772021</v>
       </c>
       <c r="W25" t="n">
-        <v>1580.971043159538</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X25" t="n">
-        <v>1335.57928849295</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y25" t="n">
-        <v>1108.159617807058</v>
+        <v>942.9254920058333</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1281.383909154731</v>
+        <v>1816.938115801912</v>
       </c>
       <c r="C26" t="n">
-        <v>1281.383909154731</v>
+        <v>1378.795642985335</v>
       </c>
       <c r="D26" t="n">
-        <v>1180.158211009521</v>
+        <v>1378.795642985335</v>
       </c>
       <c r="E26" t="n">
-        <v>746.3834661678161</v>
+        <v>945.0208981436303</v>
       </c>
       <c r="F26" t="n">
-        <v>318.5160365770239</v>
+        <v>517.1534685528381</v>
       </c>
       <c r="G26" t="n">
-        <v>318.5160365770239</v>
+        <v>117.759002998883</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296489</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J26" t="n">
-        <v>291.8416560478763</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K26" t="n">
-        <v>541.6060719863815</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385196</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.234131838215</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N26" t="n">
-        <v>1546.586139125322</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O26" t="n">
-        <v>1877.413604793267</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P26" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q26" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S26" t="n">
-        <v>2457.142437510218</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T26" t="n">
-        <v>2457.142437510218</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="U26" t="n">
-        <v>2457.142437510218</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="V26" t="n">
-        <v>2094.525487444044</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="W26" t="n">
-        <v>1689.670032855078</v>
+        <v>2236.080579222601</v>
       </c>
       <c r="X26" t="n">
-        <v>1689.670032855078</v>
+        <v>1816.938115801912</v>
       </c>
       <c r="Y26" t="n">
-        <v>1281.383909154731</v>
+        <v>1816.938115801912</v>
       </c>
     </row>
     <row r="27">
@@ -6296,13 +6296,13 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G27" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H27" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I27" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J27" t="n">
         <v>185.3289100816567</v>
@@ -6311,10 +6311,10 @@
         <v>354.972037946826</v>
       </c>
       <c r="L27" t="n">
-        <v>488.0955226008687</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M27" t="n">
-        <v>754.2846063602958</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N27" t="n">
         <v>1027.518923096496</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.7056337604945</v>
+        <v>993.1466720566555</v>
       </c>
       <c r="C28" t="n">
-        <v>682.1439222437194</v>
+        <v>820.5849605398804</v>
       </c>
       <c r="D28" t="n">
-        <v>516.2659294452421</v>
+        <v>654.7069677414031</v>
       </c>
       <c r="E28" t="n">
-        <v>346.5079256959795</v>
+        <v>484.9489639921404</v>
       </c>
       <c r="F28" t="n">
-        <v>346.5079256959795</v>
+        <v>308.2419099538965</v>
       </c>
       <c r="G28" t="n">
-        <v>181.815291661575</v>
+        <v>143.5492759194921</v>
       </c>
       <c r="H28" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J28" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K28" t="n">
-        <v>575.8386456160094</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L28" t="n">
-        <v>1124.993219091044</v>
+        <v>763.6550793552191</v>
       </c>
       <c r="M28" t="n">
-        <v>1722.539903876524</v>
+        <v>1361.201764140698</v>
       </c>
       <c r="N28" t="n">
-        <v>1857.319896264024</v>
+        <v>1752.096604794604</v>
       </c>
       <c r="O28" t="n">
-        <v>1981.811034007792</v>
+        <v>2296.256991764153</v>
       </c>
       <c r="P28" t="n">
-        <v>2402.780666612562</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q28" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R28" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S28" t="n">
-        <v>2351.562104678985</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T28" t="n">
-        <v>2109.522305909176</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="U28" t="n">
-        <v>2078.317590375239</v>
+        <v>2216.7586286714</v>
       </c>
       <c r="V28" t="n">
-        <v>1791.362082245669</v>
+        <v>1929.80312054183</v>
       </c>
       <c r="W28" t="n">
-        <v>1519.335677831961</v>
+        <v>1657.776716128122</v>
       </c>
       <c r="X28" t="n">
-        <v>1273.943923165373</v>
+        <v>1412.384961461534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1046.524252479482</v>
+        <v>1184.965290775643</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>965.7963623830552</v>
+        <v>2453.604934205609</v>
       </c>
       <c r="C29" t="n">
-        <v>527.6538895664785</v>
+        <v>2015.462461389032</v>
       </c>
       <c r="D29" t="n">
-        <v>527.6538895664785</v>
+        <v>1579.552676563476</v>
       </c>
       <c r="E29" t="n">
-        <v>449.2973178067504</v>
+        <v>1145.777931721771</v>
       </c>
       <c r="F29" t="n">
-        <v>449.2973178067504</v>
+        <v>717.910502130979</v>
       </c>
       <c r="G29" t="n">
-        <v>49.90285225279523</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I29" t="n">
         <v>125.1921461296497</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478771</v>
       </c>
       <c r="K29" t="n">
         <v>541.6060719863824</v>
@@ -6475,7 +6475,7 @@
         <v>1196.234131838216</v>
       </c>
       <c r="N29" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O29" t="n">
         <v>1877.413604793268</v>
@@ -6484,31 +6484,31 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q29" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R29" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S29" t="n">
         <v>2457.142437510219</v>
       </c>
       <c r="T29" t="n">
-        <v>2457.142437510219</v>
+        <v>2453.604934205609</v>
       </c>
       <c r="U29" t="n">
-        <v>2198.080404093058</v>
+        <v>2453.604934205609</v>
       </c>
       <c r="V29" t="n">
-        <v>2198.080404093058</v>
+        <v>2453.604934205609</v>
       </c>
       <c r="W29" t="n">
-        <v>1793.224949504091</v>
+        <v>2453.604934205609</v>
       </c>
       <c r="X29" t="n">
-        <v>1374.082486083402</v>
+        <v>2453.604934205609</v>
       </c>
       <c r="Y29" t="n">
-        <v>965.7963623830552</v>
+        <v>2453.604934205609</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H30" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I30" t="n">
-        <v>86.07360363779615</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J30" t="n">
         <v>185.3289100816567</v>
@@ -6548,19 +6548,19 @@
         <v>354.972037946826</v>
       </c>
       <c r="L30" t="n">
-        <v>488.0955226008687</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M30" t="n">
-        <v>754.2846063602958</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N30" t="n">
-        <v>1027.518923096496</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O30" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P30" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.069320161789</v>
       </c>
       <c r="Q30" t="n">
         <v>1612.190320866099</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>916.3409990880713</v>
+        <v>1093.048053126315</v>
       </c>
       <c r="C31" t="n">
-        <v>743.7792875712962</v>
+        <v>920.4863416095401</v>
       </c>
       <c r="D31" t="n">
-        <v>577.9012947728189</v>
+        <v>754.6083488110628</v>
       </c>
       <c r="E31" t="n">
-        <v>408.1432910235562</v>
+        <v>584.8503450618</v>
       </c>
       <c r="F31" t="n">
         <v>408.1432910235562</v>
@@ -6618,55 +6618,55 @@
         <v>111.538217580372</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J31" t="n">
         <v>112.1724417969993</v>
       </c>
       <c r="K31" t="n">
-        <v>279.8330253503936</v>
+        <v>489.2589604513197</v>
       </c>
       <c r="L31" t="n">
-        <v>828.9875988254286</v>
+        <v>1038.413533926355</v>
       </c>
       <c r="M31" t="n">
-        <v>1426.534283610908</v>
+        <v>1176.476351530921</v>
       </c>
       <c r="N31" t="n">
-        <v>2003.573079156052</v>
+        <v>1311.256343918421</v>
       </c>
       <c r="O31" t="n">
-        <v>2128.064216899821</v>
+        <v>1855.416730887971</v>
       </c>
       <c r="P31" t="n">
-        <v>2234.587891748231</v>
+        <v>2309.447299706723</v>
       </c>
       <c r="Q31" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R31" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S31" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T31" t="n">
         <v>2109.522305909177</v>
       </c>
       <c r="U31" t="n">
-        <v>2109.522305909177</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V31" t="n">
-        <v>1852.997447573246</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="W31" t="n">
-        <v>1580.971043159538</v>
+        <v>1757.678097197782</v>
       </c>
       <c r="X31" t="n">
-        <v>1335.57928849295</v>
+        <v>1512.286342531194</v>
       </c>
       <c r="Y31" t="n">
-        <v>1108.159617807058</v>
+        <v>1284.866671845302</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1357.729854736632</v>
+        <v>1318.981847474011</v>
       </c>
       <c r="C32" t="n">
-        <v>919.5873819200556</v>
+        <v>1318.981847474011</v>
       </c>
       <c r="D32" t="n">
-        <v>483.6775970945</v>
+        <v>883.0720626484552</v>
       </c>
       <c r="E32" t="n">
-        <v>49.90285225279521</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="F32" t="n">
-        <v>49.90285225279521</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I32" t="n">
         <v>125.192146129649</v>
@@ -6703,13 +6703,13 @@
         <v>291.8416560478763</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863815</v>
+        <v>541.6060719863817</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385197</v>
+        <v>851.4609156385199</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.234131838215</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N32" t="n">
         <v>1546.586139125323</v>
@@ -6721,31 +6721,31 @@
         <v>2159.767192776931</v>
       </c>
       <c r="Q32" t="n">
-        <v>2371.802978448967</v>
+        <v>2371.802978448968</v>
       </c>
       <c r="R32" t="n">
         <v>2495.142612639761</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T32" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U32" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="V32" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="W32" t="n">
-        <v>2203.171888642229</v>
+        <v>2052.286982921251</v>
       </c>
       <c r="X32" t="n">
-        <v>1784.02942522154</v>
+        <v>1633.144519500562</v>
       </c>
       <c r="Y32" t="n">
-        <v>1784.02942522154</v>
+        <v>1318.981847474011</v>
       </c>
     </row>
     <row r="33">
@@ -6770,19 +6770,19 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G33" t="n">
-        <v>81.28625329494412</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H33" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I33" t="n">
         <v>86.07360363779615</v>
       </c>
       <c r="J33" t="n">
-        <v>185.3289100816567</v>
+        <v>90.34627405869671</v>
       </c>
       <c r="K33" t="n">
-        <v>259.9894019238661</v>
+        <v>259.989401923866</v>
       </c>
       <c r="L33" t="n">
         <v>488.0955226008687</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1093.048053126315</v>
+        <v>751.1068732868453</v>
       </c>
       <c r="C34" t="n">
-        <v>920.4863416095401</v>
+        <v>578.5451617700702</v>
       </c>
       <c r="D34" t="n">
-        <v>754.6083488110628</v>
+        <v>412.6671689715929</v>
       </c>
       <c r="E34" t="n">
-        <v>584.8503450618</v>
+        <v>242.9091652223302</v>
       </c>
       <c r="F34" t="n">
-        <v>408.1432910235562</v>
+        <v>66.20211118408636</v>
       </c>
       <c r="G34" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H34" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90285225279521</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="J34" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K34" t="n">
-        <v>489.2589604513197</v>
+        <v>575.8386456160096</v>
       </c>
       <c r="L34" t="n">
-        <v>620.2036521583937</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M34" t="n">
-        <v>1079.027389640564</v>
+        <v>1521.28619279821</v>
       </c>
       <c r="N34" t="n">
-        <v>1656.066185185709</v>
+        <v>1656.06618518571</v>
       </c>
       <c r="O34" t="n">
         <v>1780.557322929478</v>
       </c>
       <c r="P34" t="n">
-        <v>2234.58789174823</v>
+        <v>2234.587891748231</v>
       </c>
       <c r="Q34" t="n">
         <v>2476.532137525725</v>
@@ -6885,25 +6885,25 @@
         <v>2495.142612639761</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.562104678985</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T34" t="n">
-        <v>2109.522305909176</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U34" t="n">
-        <v>1831.138321940814</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V34" t="n">
-        <v>1544.182813811244</v>
+        <v>1687.76332177202</v>
       </c>
       <c r="W34" t="n">
-        <v>1530.25842651189</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.866671845302</v>
+        <v>1170.345162691724</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.866671845302</v>
+        <v>942.9254920058324</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1785.597284327424</v>
+        <v>1778.937940672369</v>
       </c>
       <c r="C35" t="n">
-        <v>1347.454811510848</v>
+        <v>1340.795467855792</v>
       </c>
       <c r="D35" t="n">
-        <v>911.5450266852923</v>
+        <v>1340.795467855792</v>
       </c>
       <c r="E35" t="n">
-        <v>477.7702818435875</v>
+        <v>907.0207230140873</v>
       </c>
       <c r="F35" t="n">
-        <v>49.90285225279522</v>
+        <v>479.153293423295</v>
       </c>
       <c r="G35" t="n">
-        <v>49.90285225279522</v>
+        <v>318.5160365770239</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1921461296494</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J35" t="n">
         <v>291.8416560478767</v>
@@ -6955,7 +6955,7 @@
         <v>1877.413604793268</v>
       </c>
       <c r="P35" t="n">
-        <v>2159.767192776931</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q35" t="n">
         <v>2371.802978448968</v>
@@ -6964,25 +6964,25 @@
         <v>2495.142612639761</v>
       </c>
       <c r="S35" t="n">
-        <v>2457.142437510218</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T35" t="n">
-        <v>2245.84494427248</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U35" t="n">
-        <v>2245.84494427248</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="V35" t="n">
-        <v>2193.883408027771</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="W35" t="n">
-        <v>2193.883408027771</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="X35" t="n">
-        <v>2193.883408027771</v>
+        <v>1778.937940672369</v>
       </c>
       <c r="Y35" t="n">
-        <v>1785.597284327424</v>
+        <v>1778.937940672369</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>81.28625329494413</v>
       </c>
       <c r="H36" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="I36" t="n">
         <v>86.07360363779615</v>
@@ -7022,16 +7022,16 @@
         <v>354.972037946826</v>
       </c>
       <c r="L36" t="n">
-        <v>488.0955226008687</v>
+        <v>583.0781586238287</v>
       </c>
       <c r="M36" t="n">
-        <v>754.2846063602958</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N36" t="n">
-        <v>1027.518923096496</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O36" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P36" t="n">
         <v>1478.086684138829</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.2900493770524</v>
+        <v>751.1068732868457</v>
       </c>
       <c r="C37" t="n">
-        <v>750.7283378602773</v>
+        <v>578.5451617700706</v>
       </c>
       <c r="D37" t="n">
-        <v>584.8503450618</v>
+        <v>458.0032753678785</v>
       </c>
       <c r="E37" t="n">
-        <v>584.8503450618</v>
+        <v>288.2452716186158</v>
       </c>
       <c r="F37" t="n">
-        <v>408.1432910235562</v>
+        <v>111.538217580372</v>
       </c>
       <c r="G37" t="n">
-        <v>243.4506569891518</v>
+        <v>111.538217580372</v>
       </c>
       <c r="H37" t="n">
         <v>111.538217580372</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90285225279522</v>
+        <v>49.90285225279523</v>
       </c>
       <c r="J37" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969993</v>
       </c>
       <c r="K37" t="n">
-        <v>301.080191044874</v>
+        <v>489.2589604513197</v>
       </c>
       <c r="L37" t="n">
-        <v>432.0248827519479</v>
+        <v>1038.413533926355</v>
       </c>
       <c r="M37" t="n">
-        <v>1029.571567537427</v>
+        <v>1176.476351530921</v>
       </c>
       <c r="N37" t="n">
-        <v>1606.610363082572</v>
+        <v>1311.256343918421</v>
       </c>
       <c r="O37" t="n">
-        <v>2128.064216899821</v>
+        <v>1855.416730887971</v>
       </c>
       <c r="P37" t="n">
-        <v>2234.587891748231</v>
+        <v>2309.447299706723</v>
       </c>
       <c r="Q37" t="n">
-        <v>2476.532137525725</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R37" t="n">
         <v>2495.142612639761</v>
       </c>
       <c r="S37" t="n">
-        <v>2351.562104678986</v>
+        <v>2495.142612639761</v>
       </c>
       <c r="T37" t="n">
-        <v>2109.522305909176</v>
+        <v>2253.102813869952</v>
       </c>
       <c r="U37" t="n">
-        <v>1831.138321940814</v>
+        <v>1974.71882990159</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.182813811245</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.156409397536</v>
+        <v>1415.736917358312</v>
       </c>
       <c r="X37" t="n">
-        <v>1026.764654730949</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.2900493770524</v>
+        <v>942.9254920058329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1153.820286956535</v>
+        <v>1749.081965055824</v>
       </c>
       <c r="C38" t="n">
-        <v>1153.820286956535</v>
+        <v>1310.939492239248</v>
       </c>
       <c r="D38" t="n">
-        <v>717.910502130979</v>
+        <v>1310.939492239248</v>
       </c>
       <c r="E38" t="n">
-        <v>717.910502130979</v>
+        <v>877.1647473975427</v>
       </c>
       <c r="F38" t="n">
-        <v>717.910502130979</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G38" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H38" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I38" t="n">
-        <v>125.1921461296499</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478773</v>
+        <v>291.8416560478766</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863825</v>
+        <v>541.6060719863819</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385206</v>
+        <v>851.4609156385201</v>
       </c>
       <c r="M38" t="n">
         <v>1196.234131838216</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125324</v>
+        <v>1546.586139125323</v>
       </c>
       <c r="O38" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793267</v>
       </c>
       <c r="P38" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776931</v>
       </c>
       <c r="Q38" t="n">
         <v>2371.802978448968</v>
@@ -7201,25 +7201,25 @@
         <v>2495.142612639761</v>
       </c>
       <c r="S38" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="T38" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.142437510218</v>
       </c>
       <c r="U38" t="n">
-        <v>2245.844944272481</v>
+        <v>2198.080404093057</v>
       </c>
       <c r="V38" t="n">
-        <v>2245.844944272481</v>
+        <v>1835.463454026884</v>
       </c>
       <c r="W38" t="n">
-        <v>2245.844944272481</v>
+        <v>1835.463454026884</v>
       </c>
       <c r="X38" t="n">
-        <v>1826.702480851792</v>
+        <v>1835.463454026884</v>
       </c>
       <c r="Y38" t="n">
-        <v>1580.119857441442</v>
+        <v>1835.463454026884</v>
       </c>
     </row>
     <row r="39">
@@ -7244,10 +7244,10 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G39" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494413</v>
       </c>
       <c r="H39" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I39" t="n">
         <v>86.07360363779615</v>
@@ -7268,7 +7268,7 @@
         <v>1122.501559119456</v>
       </c>
       <c r="O39" t="n">
-        <v>1277.474942253457</v>
+        <v>1372.457578276417</v>
       </c>
       <c r="P39" t="n">
         <v>1478.086684138829</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>751.1068732868457</v>
+        <v>734.8076143555542</v>
       </c>
       <c r="C40" t="n">
-        <v>743.7792875712962</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D40" t="n">
-        <v>577.9012947728189</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E40" t="n">
-        <v>408.1432910235562</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F40" t="n">
-        <v>408.1432910235562</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="G40" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="H40" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="I40" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279522</v>
       </c>
       <c r="J40" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K40" t="n">
-        <v>214.5005058801841</v>
+        <v>575.8386456160096</v>
       </c>
       <c r="L40" t="n">
-        <v>763.6550793552191</v>
+        <v>1124.993219091044</v>
       </c>
       <c r="M40" t="n">
-        <v>1361.201764140698</v>
+        <v>1269.80971843676</v>
       </c>
       <c r="N40" t="n">
-        <v>1938.240559685843</v>
+        <v>1404.589710824261</v>
       </c>
       <c r="O40" t="n">
-        <v>2128.064216899821</v>
+        <v>1948.75009779381</v>
       </c>
       <c r="P40" t="n">
-        <v>2234.587891748231</v>
+        <v>2402.780666612563</v>
       </c>
       <c r="Q40" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525725</v>
       </c>
       <c r="R40" t="n">
         <v>2495.142612639761</v>
       </c>
       <c r="S40" t="n">
-        <v>2495.142612639761</v>
+        <v>2478.84335370847</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.102813869952</v>
+        <v>2236.80355493866</v>
       </c>
       <c r="U40" t="n">
-        <v>1974.71882990159</v>
+        <v>1958.419570970299</v>
       </c>
       <c r="V40" t="n">
-        <v>1687.763321772021</v>
+        <v>1671.464062840729</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.736917358312</v>
+        <v>1399.437658427021</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.345162691725</v>
+        <v>1154.045903760433</v>
       </c>
       <c r="Y40" t="n">
-        <v>942.9254920058329</v>
+        <v>926.6262330745412</v>
       </c>
     </row>
     <row r="41">
@@ -7396,16 +7396,16 @@
         <v>483.6775970945001</v>
       </c>
       <c r="E41" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="F41" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G41" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I41" t="n">
         <v>125.1921461296497</v>
@@ -7414,7 +7414,7 @@
         <v>291.8416560478772</v>
       </c>
       <c r="K41" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L41" t="n">
         <v>851.4609156385205</v>
@@ -7423,7 +7423,7 @@
         <v>1196.234131838216</v>
       </c>
       <c r="N41" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O41" t="n">
         <v>1877.413604793268</v>
@@ -7432,28 +7432,28 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q41" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S41" t="n">
-        <v>2495.142612639761</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T41" t="n">
-        <v>2283.845119402024</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U41" t="n">
-        <v>2283.845119402024</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="V41" t="n">
-        <v>1921.22816933585</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="W41" t="n">
-        <v>1921.22816933585</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="X41" t="n">
-        <v>1921.22816933585</v>
+        <v>1784.02942522154</v>
       </c>
       <c r="Y41" t="n">
         <v>1784.02942522154</v>
@@ -7484,34 +7484,34 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I42" t="n">
-        <v>49.90285225279523</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1581586966557</v>
+        <v>90.34627405869594</v>
       </c>
       <c r="K42" t="n">
-        <v>318.801286561825</v>
+        <v>259.9894019238653</v>
       </c>
       <c r="L42" t="n">
-        <v>546.9074072388277</v>
+        <v>488.095522600868</v>
       </c>
       <c r="M42" t="n">
-        <v>754.2846063602958</v>
+        <v>754.2846063602951</v>
       </c>
       <c r="N42" t="n">
-        <v>1027.518923096496</v>
+        <v>1027.518923096495</v>
       </c>
       <c r="O42" t="n">
-        <v>1277.474942253457</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P42" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q42" t="n">
-        <v>1612.190320866099</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R42" t="n">
         <v>1677.417474573878</v>
@@ -7545,58 +7545,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>607.5263653260704</v>
+        <v>607.5263653260708</v>
       </c>
       <c r="C43" t="n">
-        <v>434.9646538092953</v>
+        <v>434.9646538092958</v>
       </c>
       <c r="D43" t="n">
-        <v>434.9646538092953</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E43" t="n">
-        <v>288.2452716186158</v>
+        <v>226.609906291039</v>
       </c>
       <c r="F43" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G43" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H43" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J43" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K43" t="n">
-        <v>489.2589604513197</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L43" t="n">
-        <v>620.2036521583937</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M43" t="n">
-        <v>1217.750336943873</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N43" t="n">
-        <v>1352.530329331373</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O43" t="n">
-        <v>1896.690716300922</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P43" t="n">
-        <v>2234.587891748231</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q43" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T43" t="n">
         <v>2109.522305909177</v>
@@ -7605,16 +7605,16 @@
         <v>1831.138321940815</v>
       </c>
       <c r="V43" t="n">
-        <v>1544.182813811245</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W43" t="n">
         <v>1272.156409397537</v>
       </c>
       <c r="X43" t="n">
-        <v>1026.764654730949</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y43" t="n">
-        <v>799.3449840450576</v>
+        <v>799.344984045058</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2025.737504614816</v>
+        <v>1313.074532223098</v>
       </c>
       <c r="C44" t="n">
-        <v>1587.595031798239</v>
+        <v>1313.074532223098</v>
       </c>
       <c r="D44" t="n">
-        <v>1151.685246972684</v>
+        <v>877.1647473975427</v>
       </c>
       <c r="E44" t="n">
-        <v>717.910502130979</v>
+        <v>877.1647473975427</v>
       </c>
       <c r="F44" t="n">
-        <v>717.910502130979</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G44" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H44" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I44" t="n">
-        <v>125.1921461296495</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J44" t="n">
-        <v>291.8416560478768</v>
+        <v>291.8416560478771</v>
       </c>
       <c r="K44" t="n">
-        <v>541.6060719863821</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L44" t="n">
-        <v>851.4609156385202</v>
+        <v>851.4609156385205</v>
       </c>
       <c r="M44" t="n">
         <v>1196.234131838216</v>
       </c>
       <c r="N44" t="n">
-        <v>1546.586139125323</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O44" t="n">
         <v>1877.413604793268</v>
@@ -7669,31 +7669,31 @@
         <v>2159.767192776932</v>
       </c>
       <c r="Q44" t="n">
-        <v>2371.802978448968</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R44" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S44" t="n">
         <v>2457.142437510219</v>
       </c>
       <c r="T44" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U44" t="n">
-        <v>2245.844944272481</v>
+        <v>2198.080404093058</v>
       </c>
       <c r="V44" t="n">
-        <v>2245.844944272481</v>
+        <v>1835.463454026885</v>
       </c>
       <c r="W44" t="n">
-        <v>2245.844944272481</v>
+        <v>1430.607999437918</v>
       </c>
       <c r="X44" t="n">
-        <v>2025.737504614816</v>
+        <v>1430.607999437918</v>
       </c>
       <c r="Y44" t="n">
-        <v>2025.737504614816</v>
+        <v>1313.074532223098</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>81.28625329494415</v>
       </c>
       <c r="H45" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I45" t="n">
-        <v>49.90285225279523</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J45" t="n">
-        <v>90.34627405869676</v>
+        <v>90.34627405869594</v>
       </c>
       <c r="K45" t="n">
-        <v>259.9894019238661</v>
+        <v>259.9894019238653</v>
       </c>
       <c r="L45" t="n">
-        <v>488.0955226008687</v>
+        <v>488.095522600868</v>
       </c>
       <c r="M45" t="n">
-        <v>754.2846063602958</v>
+        <v>754.2846063602951</v>
       </c>
       <c r="N45" t="n">
-        <v>1027.518923096496</v>
+        <v>1027.518923096495</v>
       </c>
       <c r="O45" t="n">
-        <v>1277.474942253457</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P45" t="n">
         <v>1478.086684138829</v>
       </c>
       <c r="Q45" t="n">
-        <v>1612.190320866099</v>
+        <v>1612.190320866098</v>
       </c>
       <c r="R45" t="n">
         <v>1677.417474573878</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1026.764654730949</v>
+        <v>729.7422446406958</v>
       </c>
       <c r="C46" t="n">
-        <v>854.2029432141743</v>
+        <v>557.1805331239208</v>
       </c>
       <c r="D46" t="n">
-        <v>688.324950415697</v>
+        <v>391.3025403254435</v>
       </c>
       <c r="E46" t="n">
-        <v>584.8503450618</v>
+        <v>391.3025403254435</v>
       </c>
       <c r="F46" t="n">
-        <v>408.1432910235562</v>
+        <v>214.5954862871997</v>
       </c>
       <c r="G46" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H46" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I46" t="n">
-        <v>49.90285225279523</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J46" t="n">
-        <v>112.1724417969993</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K46" t="n">
-        <v>214.5005058801841</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L46" t="n">
-        <v>763.6550793552191</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M46" t="n">
-        <v>1175.057809249458</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N46" t="n">
-        <v>1752.096604794603</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O46" t="n">
-        <v>2296.256991764153</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P46" t="n">
-        <v>2402.780666612563</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q46" t="n">
         <v>2476.532137525726</v>
       </c>
       <c r="R46" t="n">
-        <v>2495.142612639761</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S46" t="n">
-        <v>2351.562104678986</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="T46" t="n">
         <v>2109.522305909177</v>
@@ -7842,16 +7842,16 @@
         <v>1831.138321940815</v>
       </c>
       <c r="V46" t="n">
-        <v>1544.182813811245</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W46" t="n">
         <v>1272.156409397537</v>
       </c>
       <c r="X46" t="n">
-        <v>1026.764654730949</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y46" t="n">
-        <v>1026.764654730949</v>
+        <v>799.344984045058</v>
       </c>
     </row>
   </sheetData>
@@ -8856,13 +8856,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>175.7179764032066</v>
       </c>
       <c r="O13" t="n">
-        <v>141.4680432173448</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9087,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>93.97993254278362</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,10 +9102,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>80.00897722411321</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,22 +9558,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>95.45404108603668</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9795,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>160.2273345451435</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
@@ -10044,13 +10044,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>258.7018669357626</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>317.6221795518782</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>65.99244390930255</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>94.27612818771786</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>324.0009291692978</v>
+        <v>260.838541517777</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>400.9724404782628</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>94.2761281877174</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>6.821900748636153</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>65.99244390930244</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="P43" t="n">
-        <v>233.710606665554</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>276.1009215047204</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>289.4889408148881</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>245.9139333499058</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>51.0097198172564</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>28.54824787247523</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>69.59641759923585</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>184.1633145781557</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>79.36566404431551</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>224.6529336326979</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>210.1762779576779</v>
+        <v>285.9536173888166</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -23794,10 +23794,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.7670594413981</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>92.25017967085178</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>248.9890201107139</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>275.9969428364924</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>44.17943021089079</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>145.3425294405765</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>37.6201733782473</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.471413082989</v>
@@ -24268,13 +24268,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>358.5605749691272</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>363.0809608135318</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>148.6213355092769</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>163.5817845432132</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,10 +24445,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>331.3372458135419</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>198.7494632423595</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>37.62017337824729</v>
       </c>
       <c r="T26" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U26" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>37.8833555846621</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430097</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U28" t="n">
-        <v>244.7074757500807</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>351.863991351157</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.1845183053605</v>
+        <v>205.6823900337959</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>30.12634329570244</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>196.5805178739681</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>265.9270524809863</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.6201733782473</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.1845183053605</v>
@@ -24979,13 +24979,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>111.7558832855209</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>93.18221715705715</v>
       </c>
     </row>
     <row r="33">
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>146.9094413520821</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>255.5209969432104</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4005208984156</v>
+        <v>236.3696366206072</v>
       </c>
       <c r="H35" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U35" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>307.5488596832495</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>44.88274533232233</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.7056146786752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>336.5189006987096</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U38" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>160.0864652870974</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>163.5817845432133</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1447028811674</v>
+        <v>126.0084365391891</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.6201733782473</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U41" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>5.040569703679125</v>
       </c>
       <c r="Y41" t="n">
-        <v>268.3765057901761</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>126.0084365391885</v>
       </c>
       <c r="E43" t="n">
-        <v>22.80823534299739</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25867,22 +25867,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U44" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>197.0446735253942</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>287.8451299206714</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>120.9937205214787</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>65.62056441141209</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>319365.604048532</v>
+        <v>319365.6040485319</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>319365.6040485319</v>
+        <v>319365.6040485318</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>333772.4727918314</v>
+        <v>333772.4727918315</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>333772.4727918315</v>
+        <v>333772.4727918316</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>333772.4727918313</v>
+        <v>333772.4727918314</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>333772.4727918315</v>
+        <v>333772.4727918314</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333772.4727918314</v>
+        <v>333772.4727918315</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>418707.7063118333</v>
       </c>
       <c r="E2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="F2" t="n">
-        <v>251676.1140813078</v>
+        <v>251676.1140813077</v>
       </c>
       <c r="G2" t="n">
         <v>251676.1140813077</v>
@@ -26334,13 +26334,13 @@
         <v>251676.1140813077</v>
       </c>
       <c r="I2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="J2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="K2" t="n">
-        <v>262836.1542014048</v>
+        <v>262836.1542014049</v>
       </c>
       <c r="L2" t="n">
         <v>262836.1542014048</v>
@@ -26349,13 +26349,13 @@
         <v>262836.1542014048</v>
       </c>
       <c r="N2" t="n">
+        <v>262836.1542014048</v>
+      </c>
+      <c r="O2" t="n">
         <v>262836.1542014049</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>262836.1542014048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>262836.1542014049</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745917</v>
+        <v>29024.76432745936</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>20967.98795247263</v>
       </c>
       <c r="F4" t="n">
-        <v>20967.98795247263</v>
+        <v>20967.98795247262</v>
       </c>
       <c r="G4" t="n">
-        <v>20967.98795247263</v>
+        <v>20967.98795247261</v>
       </c>
       <c r="H4" t="n">
         <v>20967.98795247263</v>
@@ -26441,25 +26441,25 @@
         <v>22142.92370669737</v>
       </c>
       <c r="J4" t="n">
-        <v>22142.92370669734</v>
+        <v>22142.92370669737</v>
       </c>
       <c r="K4" t="n">
         <v>22142.92370669737</v>
       </c>
       <c r="L4" t="n">
-        <v>22142.92370669734</v>
+        <v>22142.92370669735</v>
       </c>
       <c r="M4" t="n">
         <v>22142.92370669736</v>
       </c>
       <c r="N4" t="n">
-        <v>22142.92370669736</v>
+        <v>22142.92370669735</v>
       </c>
       <c r="O4" t="n">
         <v>22142.92370669737</v>
       </c>
       <c r="P4" t="n">
-        <v>22142.92370669736</v>
+        <v>22142.92370669737</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
+        <v>48681.28220745477</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48681.28220745477</v>
+      </c>
+      <c r="K5" t="n">
+        <v>48681.28220745477</v>
+      </c>
+      <c r="L5" t="n">
         <v>48681.28220745476</v>
-      </c>
-      <c r="J5" t="n">
-        <v>48681.28220745474</v>
-      </c>
-      <c r="K5" t="n">
-        <v>48681.28220745476</v>
-      </c>
-      <c r="L5" t="n">
-        <v>48681.28220745474</v>
       </c>
       <c r="M5" t="n">
         <v>48681.28220745476</v>
@@ -26508,10 +26508,10 @@
         <v>48681.28220745476</v>
       </c>
       <c r="O5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745477</v>
       </c>
       <c r="P5" t="n">
-        <v>48681.28220745476</v>
+        <v>48681.28220745477</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86349.39000000048</v>
+        <v>86317.48328249891</v>
       </c>
       <c r="C6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249891</v>
       </c>
       <c r="D6" t="n">
-        <v>86349.39000000054</v>
+        <v>86317.48328249886</v>
       </c>
       <c r="E6" t="n">
-        <v>-366478.1560714784</v>
+        <v>-367032.0365147004</v>
       </c>
       <c r="F6" t="n">
-        <v>184657.0449191973</v>
+        <v>184103.1644759753</v>
       </c>
       <c r="G6" t="n">
-        <v>184657.0449191973</v>
+        <v>184103.1644759753</v>
       </c>
       <c r="H6" t="n">
-        <v>184657.0449191973</v>
+        <v>184103.1644759753</v>
       </c>
       <c r="I6" t="n">
-        <v>162987.1839597936</v>
+        <v>162468.1786419468</v>
       </c>
       <c r="J6" t="n">
-        <v>192011.9482872527</v>
+        <v>191492.9429694061</v>
       </c>
       <c r="K6" t="n">
-        <v>192011.9482872527</v>
+        <v>191492.9429694061</v>
       </c>
       <c r="L6" t="n">
-        <v>192011.9482872527</v>
+        <v>191492.942969406</v>
       </c>
       <c r="M6" t="n">
-        <v>44961.17988468122</v>
+        <v>44442.17456683461</v>
       </c>
       <c r="N6" t="n">
-        <v>192011.9482872528</v>
+        <v>191492.9429694061</v>
       </c>
       <c r="O6" t="n">
-        <v>192011.9482872527</v>
+        <v>191492.9429694061</v>
       </c>
       <c r="P6" t="n">
-        <v>192011.9482872528</v>
+        <v>191492.9429694061</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="J3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="K3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="L3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="M3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="N3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="O3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
       <c r="P3" t="n">
-        <v>493.3538759325867</v>
+        <v>493.3538759325868</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
+        <v>623.7856531599405</v>
+      </c>
+      <c r="J4" t="n">
+        <v>623.7856531599405</v>
+      </c>
+      <c r="K4" t="n">
+        <v>623.7856531599405</v>
+      </c>
+      <c r="L4" t="n">
+        <v>623.7856531599402</v>
+      </c>
+      <c r="M4" t="n">
         <v>623.7856531599404</v>
       </c>
-      <c r="J4" t="n">
-        <v>623.7856531599401</v>
-      </c>
-      <c r="K4" t="n">
-        <v>623.7856531599404</v>
-      </c>
-      <c r="L4" t="n">
-        <v>623.7856531599401</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>623.7856531599402</v>
       </c>
-      <c r="N4" t="n">
-        <v>623.7856531599404</v>
-      </c>
       <c r="O4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.7856531599405</v>
       </c>
       <c r="P4" t="n">
-        <v>623.7856531599404</v>
+        <v>623.7856531599405</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936556</v>
+        <v>26.65194783936573</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33.70375879800633</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33.70375879800611</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32086,28 +32086,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32703,46 +32703,46 @@
         <v>1.983332164553111</v>
       </c>
       <c r="H23" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I23" t="n">
-        <v>76.46241327393389</v>
+        <v>76.4624132739339</v>
       </c>
       <c r="J23" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K23" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577154</v>
       </c>
       <c r="M23" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N23" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q23" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R23" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S23" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T23" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J24" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>75.41463822445394</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L24" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M24" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N24" t="n">
-        <v>275.9942593294949</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O24" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P24" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276883</v>
       </c>
       <c r="Q24" t="n">
         <v>135.458218916434</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S24" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T24" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702384</v>
       </c>
       <c r="H25" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837217</v>
       </c>
       <c r="I25" t="n">
         <v>26.75433805877045</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717586</v>
       </c>
       <c r="K25" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L25" t="n">
         <v>132.2673653606807</v>
@@ -32888,19 +32888,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R25" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S25" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T25" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,7 +32946,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K26" t="n">
         <v>252.287288826773</v>
@@ -32958,13 +32958,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q26" t="n">
         <v>214.1775612848849</v>
@@ -32973,13 +32973,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T26" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33031,13 +33031,13 @@
         <v>171.3566948133023</v>
       </c>
       <c r="L27" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M27" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294949</v>
+        <v>180.0522027406465</v>
       </c>
       <c r="O27" t="n">
         <v>252.4808274312739</v>
@@ -33052,7 +33052,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S27" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T27" t="n">
         <v>4.277285018698557</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H28" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I28" t="n">
         <v>26.75433805877045</v>
@@ -33107,7 +33107,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K28" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L28" t="n">
         <v>132.2673653606807</v>
@@ -33125,19 +33125,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R28" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S28" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T28" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33183,7 +33183,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K29" t="n">
         <v>252.287288826773</v>
@@ -33195,13 +33195,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q29" t="n">
         <v>214.1775612848849</v>
@@ -33210,13 +33210,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S29" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33268,13 +33268,13 @@
         <v>171.3566948133023</v>
       </c>
       <c r="L30" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M30" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N30" t="n">
-        <v>275.9942593294949</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O30" t="n">
         <v>252.4808274312739</v>
@@ -33283,13 +33283,13 @@
         <v>202.6381231165374</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.458218916434</v>
+        <v>39.51616232758533</v>
       </c>
       <c r="R30" t="n">
         <v>65.88601384624246</v>
       </c>
       <c r="S30" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T30" t="n">
         <v>4.277285018698557</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H31" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I31" t="n">
         <v>26.75433805877045</v>
@@ -33344,7 +33344,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K31" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
         <v>132.2673653606807</v>
@@ -33362,19 +33362,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R31" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S31" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T31" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,7 +33420,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J32" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K32" t="n">
         <v>252.287288826773</v>
@@ -33432,13 +33432,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q32" t="n">
         <v>214.1775612848849</v>
@@ -33447,13 +33447,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S32" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T32" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,10 +33499,10 @@
         <v>36.53611251010195</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980359</v>
       </c>
       <c r="K33" t="n">
-        <v>75.41463822445394</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L33" t="n">
         <v>230.4102229060633</v>
@@ -33511,7 +33511,7 @@
         <v>268.8778623832598</v>
       </c>
       <c r="N33" t="n">
-        <v>275.9942593294949</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O33" t="n">
         <v>252.4808274312739</v>
@@ -33526,7 +33526,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S33" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T33" t="n">
         <v>4.277285018698557</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H34" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I34" t="n">
         <v>26.75433805877045</v>
@@ -33581,7 +33581,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K34" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L34" t="n">
         <v>132.2673653606807</v>
@@ -33599,19 +33599,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R34" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S34" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T34" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33657,7 +33657,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K35" t="n">
         <v>252.287288826773</v>
@@ -33669,13 +33669,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q35" t="n">
         <v>214.1775612848849</v>
@@ -33684,13 +33684,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S35" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T35" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33742,19 +33742,19 @@
         <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M36" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N36" t="n">
-        <v>275.9942593294949</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O36" t="n">
         <v>252.4808274312739</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276888</v>
       </c>
       <c r="Q36" t="n">
         <v>135.458218916434</v>
@@ -33763,7 +33763,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S36" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T36" t="n">
         <v>4.277285018698557</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H37" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I37" t="n">
         <v>26.75433805877045</v>
@@ -33818,7 +33818,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K37" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L37" t="n">
         <v>132.2673653606807</v>
@@ -33836,19 +33836,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R37" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S37" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T37" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33894,7 +33894,7 @@
         <v>76.46241327393389</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K38" t="n">
         <v>252.287288826773</v>
@@ -33906,13 +33906,13 @@
         <v>348.2557739390867</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q38" t="n">
         <v>214.1775612848849</v>
@@ -33921,13 +33921,13 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S38" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T38" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33985,13 +33985,13 @@
         <v>268.8778623832598</v>
       </c>
       <c r="N39" t="n">
-        <v>275.9942593294949</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O39" t="n">
-        <v>156.5387708424253</v>
+        <v>252.4808274312739</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276888</v>
       </c>
       <c r="Q39" t="n">
         <v>135.458218916434</v>
@@ -34000,7 +34000,7 @@
         <v>65.88601384624246</v>
       </c>
       <c r="S39" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T39" t="n">
         <v>4.277285018698557</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702383</v>
       </c>
       <c r="H40" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837216</v>
       </c>
       <c r="I40" t="n">
         <v>26.75433805877045</v>
@@ -34055,7 +34055,7 @@
         <v>62.89857529717585</v>
       </c>
       <c r="K40" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L40" t="n">
         <v>132.2673653606807</v>
@@ -34073,19 +34073,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R40" t="n">
         <v>40.00210279282907</v>
       </c>
       <c r="S40" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T40" t="n">
         <v>3.80125117521829</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.983332164553111</v>
       </c>
       <c r="H41" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I41" t="n">
-        <v>76.46241327393389</v>
+        <v>76.4624132739339</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K41" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577154</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q41" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R41" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S41" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T41" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,25 +34207,25 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979563</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M42" t="n">
-        <v>209.4719183045133</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N42" t="n">
-        <v>275.9942593294949</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O42" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P42" t="n">
         <v>202.6381231165374</v>
@@ -34234,16 +34234,16 @@
         <v>135.458218916434</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S42" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T42" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702384</v>
       </c>
       <c r="H43" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837217</v>
       </c>
       <c r="I43" t="n">
         <v>26.75433805877045</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717586</v>
       </c>
       <c r="K43" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L43" t="n">
         <v>132.2673653606807</v>
@@ -34310,19 +34310,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S43" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T43" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.983332164553111</v>
       </c>
       <c r="H44" t="n">
-        <v>20.31180053022955</v>
+        <v>20.31180053022956</v>
       </c>
       <c r="I44" t="n">
-        <v>76.46241327393369</v>
+        <v>76.4624132739339</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K44" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L44" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577154</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N44" t="n">
-        <v>353.8909164516232</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O44" t="n">
-        <v>334.1691572403482</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P44" t="n">
-        <v>285.2056444279432</v>
+        <v>285.2056444279434</v>
       </c>
       <c r="Q44" t="n">
-        <v>214.1775612848849</v>
+        <v>214.177561284885</v>
       </c>
       <c r="R44" t="n">
         <v>124.5854890816095</v>
       </c>
       <c r="S44" t="n">
-        <v>45.19518169975406</v>
+        <v>45.19518169975407</v>
       </c>
       <c r="T44" t="n">
-        <v>8.682036550331247</v>
+        <v>8.682036550331249</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1586665731642488</v>
+        <v>0.1586665731642489</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808236</v>
+        <v>4.315828707979563</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M45" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N45" t="n">
-        <v>275.9942593294949</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O45" t="n">
-        <v>252.4808274312739</v>
+        <v>252.480827431274</v>
       </c>
       <c r="P45" t="n">
         <v>202.6381231165374</v>
@@ -34471,16 +34471,16 @@
         <v>135.458218916434</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624246</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S45" t="n">
-        <v>19.71088362806135</v>
+        <v>19.71088362806136</v>
       </c>
       <c r="T45" t="n">
-        <v>4.277285018698557</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06981422772630948</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8896545303702382</v>
+        <v>0.8896545303702384</v>
       </c>
       <c r="H46" t="n">
-        <v>7.909837551837215</v>
+        <v>7.909837551837217</v>
       </c>
       <c r="I46" t="n">
         <v>26.75433805877045</v>
       </c>
       <c r="J46" t="n">
-        <v>62.89857529717585</v>
+        <v>62.89857529717586</v>
       </c>
       <c r="K46" t="n">
-        <v>103.3616808921058</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L46" t="n">
         <v>132.2673653606807</v>
@@ -34547,19 +34547,19 @@
         <v>107.5996715640513</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582059</v>
+        <v>74.49643526582061</v>
       </c>
       <c r="R46" t="n">
-        <v>40.00210279282907</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S46" t="n">
-        <v>15.50425213381587</v>
+        <v>15.50425213381588</v>
       </c>
       <c r="T46" t="n">
-        <v>3.80125117521829</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0485266107474676</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562351</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
@@ -35576,13 +35576,13 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030951</v>
       </c>
       <c r="O13" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35734,7 +35734,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
@@ -35807,25 +35807,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>191.7578119039535</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -35889,16 +35889,16 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>205.1309990607778</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36138,7 +36138,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36211,7 +36211,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>227.3776697108138</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36354,10 +36354,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.04979179480249</v>
+        <v>76.0497917948025</v>
       </c>
       <c r="J23" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K23" t="n">
         <v>252.287288826773</v>
@@ -36366,22 +36366,22 @@
         <v>312.9846905577153</v>
       </c>
       <c r="M23" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N23" t="n">
         <v>353.8909164516233</v>
       </c>
       <c r="O23" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403486</v>
       </c>
       <c r="P23" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279435</v>
       </c>
       <c r="Q23" t="n">
         <v>214.1775612848851</v>
       </c>
       <c r="R23" t="n">
-        <v>124.5854890816095</v>
+        <v>124.585489081609</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010194</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J24" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K24" t="n">
-        <v>75.41463822445394</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L24" t="n">
-        <v>230.4102229060633</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M24" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N24" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O24" t="n">
         <v>252.4808274312738</v>
       </c>
       <c r="P24" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276883</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.4582189164339</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R24" t="n">
-        <v>65.88601384624235</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>62.89857529717584</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K25" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L25" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M25" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N25" t="n">
-        <v>296.3687409971637</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O25" t="n">
-        <v>549.6569565348987</v>
+        <v>386.5871655013821</v>
       </c>
       <c r="P25" t="n">
         <v>458.6167361805583</v>
@@ -36539,7 +36539,7 @@
         <v>244.3881270479742</v>
       </c>
       <c r="R25" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K26" t="n">
         <v>252.287288826773</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577156</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390866</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N26" t="n">
         <v>353.8909164516233</v>
@@ -36676,16 +36676,16 @@
         <v>100.2578852968288</v>
       </c>
       <c r="K27" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L27" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N27" t="n">
-        <v>275.994259329495</v>
+        <v>180.0522027406465</v>
       </c>
       <c r="O27" t="n">
         <v>252.4808274312738</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K28" t="n">
-        <v>380.8954733882023</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L28" t="n">
-        <v>554.7015893687221</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M28" t="n">
-        <v>603.5825098843225</v>
+        <v>603.5825098843226</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520202</v>
+        <v>394.843273387783</v>
       </c>
       <c r="O28" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P28" t="n">
-        <v>425.2218511159297</v>
+        <v>107.5996715640513</v>
       </c>
       <c r="Q28" t="n">
         <v>74.49643526582076</v>
@@ -36831,7 +36831,7 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K29" t="n">
         <v>252.287288826773</v>
@@ -36840,7 +36840,7 @@
         <v>312.9846905577153</v>
       </c>
       <c r="M29" t="n">
-        <v>348.2557739390866</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N29" t="n">
         <v>353.8909164516233</v>
@@ -36849,7 +36849,7 @@
         <v>334.1691572403483</v>
       </c>
       <c r="P29" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q29" t="n">
         <v>214.1775612848851</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010194</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J30" t="n">
         <v>100.2578852968288</v>
       </c>
       <c r="K30" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L30" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832598</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N30" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O30" t="n">
         <v>252.4808274312738</v>
@@ -36931,7 +36931,7 @@
         <v>202.6381231165374</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.4582189164339</v>
+        <v>39.51616232758533</v>
       </c>
       <c r="R30" t="n">
         <v>65.88601384624235</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>62.89857529717584</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K31" t="n">
-        <v>169.3541248014084</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L31" t="n">
-        <v>554.7015893687222</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M31" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N31" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O31" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P31" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q31" t="n">
-        <v>244.3881270479742</v>
+        <v>168.7725634535386</v>
       </c>
       <c r="R31" t="n">
         <v>18.79845971114723</v>
@@ -37071,22 +37071,22 @@
         <v>168.3328383012397</v>
       </c>
       <c r="K32" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267732</v>
       </c>
       <c r="L32" t="n">
-        <v>312.9846905577155</v>
+        <v>312.9846905577153</v>
       </c>
       <c r="M32" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516231</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P32" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q32" t="n">
         <v>214.1775612848851</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J33" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707980359</v>
       </c>
       <c r="K33" t="n">
-        <v>75.41463822445394</v>
+        <v>171.3566948133023</v>
       </c>
       <c r="L33" t="n">
         <v>230.4102229060633</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89857529717585</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K34" t="n">
         <v>380.8954733882024</v>
       </c>
       <c r="L34" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M34" t="n">
-        <v>463.4583206890616</v>
+        <v>400.2959330375409</v>
       </c>
       <c r="N34" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O34" t="n">
         <v>125.7486239836044</v>
@@ -37305,7 +37305,7 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K35" t="n">
         <v>252.287288826773</v>
@@ -37320,10 +37320,10 @@
         <v>353.8909164516233</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q35" t="n">
         <v>214.1775612848851</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>36.53611251010195</v>
+        <v>36.53611251010194</v>
       </c>
       <c r="J36" t="n">
         <v>100.2578852968288</v>
@@ -37390,19 +37390,19 @@
         <v>171.3566948133023</v>
       </c>
       <c r="L36" t="n">
-        <v>134.4681663172149</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M36" t="n">
         <v>268.8778623832598</v>
       </c>
       <c r="N36" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O36" t="n">
         <v>252.4808274312738</v>
       </c>
       <c r="P36" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276888</v>
       </c>
       <c r="Q36" t="n">
         <v>135.4582189164339</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717585</v>
       </c>
       <c r="K37" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L37" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687221</v>
       </c>
       <c r="M37" t="n">
-        <v>603.5825098843226</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N37" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O37" t="n">
-        <v>526.7210644618672</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P37" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q37" t="n">
-        <v>244.3881270479742</v>
+        <v>168.7725634535382</v>
       </c>
       <c r="R37" t="n">
         <v>18.79845971114723</v>
@@ -37542,16 +37542,16 @@
         <v>76.04979179480249</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K38" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L38" t="n">
         <v>312.9846905577153</v>
       </c>
       <c r="M38" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390866</v>
       </c>
       <c r="N38" t="n">
         <v>353.8909164516233</v>
@@ -37560,7 +37560,7 @@
         <v>334.1691572403481</v>
       </c>
       <c r="P38" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q38" t="n">
         <v>214.1775612848851</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>36.53611251010194</v>
+        <v>36.53611251010195</v>
       </c>
       <c r="J39" t="n">
         <v>100.2578852968288</v>
@@ -37636,10 +37636,10 @@
         <v>275.9942593294951</v>
       </c>
       <c r="O39" t="n">
-        <v>156.5387708424253</v>
+        <v>252.4808274312738</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276888</v>
       </c>
       <c r="Q39" t="n">
         <v>135.4582189164339</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>62.89857529717584</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K40" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882024</v>
       </c>
       <c r="L40" t="n">
         <v>554.7015893687222</v>
       </c>
       <c r="M40" t="n">
-        <v>603.5825098843226</v>
+        <v>146.2792922684</v>
       </c>
       <c r="N40" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O40" t="n">
-        <v>191.7410678929068</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P40" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q40" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R40" t="n">
         <v>18.79845971114723</v>
@@ -37776,19 +37776,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.04979179480249</v>
+        <v>76.0497917948025</v>
       </c>
       <c r="J41" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K41" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577153</v>
+        <v>312.9846905577152</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390866</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N41" t="n">
         <v>353.8909164516233</v>
@@ -37797,7 +37797,7 @@
         <v>334.1691572403483</v>
       </c>
       <c r="P41" t="n">
-        <v>285.2056444279431</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q41" t="n">
         <v>214.1775612848851</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707979563</v>
       </c>
       <c r="K42" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
         <v>230.4102229060633</v>
       </c>
       <c r="M42" t="n">
-        <v>209.4719183045133</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N42" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O42" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P42" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164339</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R42" t="n">
-        <v>65.88601384624235</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717584</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K43" t="n">
-        <v>380.8954733882024</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L43" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M43" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520202</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O43" t="n">
-        <v>549.6569565348987</v>
+        <v>386.5871655013821</v>
       </c>
       <c r="P43" t="n">
-        <v>341.3102782296053</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q43" t="n">
         <v>244.3881270479742</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.04979179480229</v>
+        <v>76.0497917948025</v>
       </c>
       <c r="J44" t="n">
-        <v>168.3328383012397</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K44" t="n">
         <v>252.287288826773</v>
@@ -38025,7 +38025,7 @@
         <v>312.9846905577153</v>
       </c>
       <c r="M44" t="n">
-        <v>348.2557739390867</v>
+        <v>348.2557739390868</v>
       </c>
       <c r="N44" t="n">
         <v>353.8909164516233</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808236</v>
+        <v>4.315828707979563</v>
       </c>
       <c r="K45" t="n">
-        <v>171.3566948133023</v>
+        <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
         <v>230.4102229060633</v>
@@ -38110,16 +38110,16 @@
         <v>275.994259329495</v>
       </c>
       <c r="O45" t="n">
-        <v>252.4808274312738</v>
+        <v>252.4808274312741</v>
       </c>
       <c r="P45" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.4582189164339</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R45" t="n">
-        <v>65.88601384624235</v>
+        <v>65.88601384624258</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>62.89857529717584</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K46" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L46" t="n">
-        <v>554.7015893687222</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M46" t="n">
-        <v>415.5583130244842</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N46" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O46" t="n">
-        <v>549.6569565348987</v>
+        <v>386.5871655013821</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R46" t="n">
-        <v>18.79845971114723</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
